--- a/examples/XlsxPeasant_01_simplestTest.xlsx
+++ b/examples/XlsxPeasant_01_simplestTest.xlsx
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08CDCDB-FFD5-4010-92CD-D29D25D6EAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5B66D-CF4A-4D62-AFD2-C08975E19F94}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
